--- a/6/1/1/3/1/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/1/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Serie</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,6 +2292,35 @@
         <v>1119</v>
       </c>
     </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>61762</v>
+      </c>
+      <c r="C60">
+        <v>11748</v>
+      </c>
+      <c r="D60">
+        <v>19196</v>
+      </c>
+      <c r="E60">
+        <v>20670</v>
+      </c>
+      <c r="F60">
+        <v>3877</v>
+      </c>
+      <c r="G60">
+        <v>2507</v>
+      </c>
+      <c r="H60">
+        <v>2885</v>
+      </c>
+      <c r="I60">
+        <v>880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
